--- a/data/532/HKMA/Money supply Adjusted for currency swap deposits.xlsx
+++ b/data/532/HKMA/Money supply Adjusted for currency swap deposits.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HKM" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,926 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
-  <si>
-    <t>end_of_month</t>
-  </si>
-  <si>
-    <t>m1_hkd</t>
-  </si>
-  <si>
-    <t>m1_fc</t>
-  </si>
-  <si>
-    <t>m1_total</t>
-  </si>
-  <si>
-    <t>m2_hkd</t>
-  </si>
-  <si>
-    <t>m2_fc</t>
-  </si>
-  <si>
-    <t>m2_total</t>
-  </si>
-  <si>
-    <t>m3_hkd</t>
-  </si>
-  <si>
-    <t>m3_fc</t>
-  </si>
-  <si>
-    <t>m3_total</t>
-  </si>
-  <si>
-    <t>1997-04</t>
-  </si>
-  <si>
-    <t>1997-05</t>
-  </si>
-  <si>
-    <t>1997-06</t>
-  </si>
-  <si>
-    <t>1997-07</t>
-  </si>
-  <si>
-    <t>1997-08</t>
-  </si>
-  <si>
-    <t>1997-09</t>
-  </si>
-  <si>
-    <t>1997-10</t>
-  </si>
-  <si>
-    <t>1997-11</t>
-  </si>
-  <si>
-    <t>1997-12</t>
-  </si>
-  <si>
-    <t>1998-01</t>
-  </si>
-  <si>
-    <t>1998-02</t>
-  </si>
-  <si>
-    <t>1998-03</t>
-  </si>
-  <si>
-    <t>1998-04</t>
-  </si>
-  <si>
-    <t>1998-05</t>
-  </si>
-  <si>
-    <t>1998-06</t>
-  </si>
-  <si>
-    <t>1998-07</t>
-  </si>
-  <si>
-    <t>1998-08</t>
-  </si>
-  <si>
-    <t>1998-09</t>
-  </si>
-  <si>
-    <t>1998-10</t>
-  </si>
-  <si>
-    <t>1998-11</t>
-  </si>
-  <si>
-    <t>1998-12</t>
-  </si>
-  <si>
-    <t>1999-01</t>
-  </si>
-  <si>
-    <t>1999-02</t>
-  </si>
-  <si>
-    <t>1999-03</t>
-  </si>
-  <si>
-    <t>1999-04</t>
-  </si>
-  <si>
-    <t>1999-05</t>
-  </si>
-  <si>
-    <t>1999-06</t>
-  </si>
-  <si>
-    <t>1999-07</t>
-  </si>
-  <si>
-    <t>1999-08</t>
-  </si>
-  <si>
-    <t>1999-09</t>
-  </si>
-  <si>
-    <t>1999-10</t>
-  </si>
-  <si>
-    <t>1999-11</t>
-  </si>
-  <si>
-    <t>1999-12</t>
-  </si>
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2000-02</t>
-  </si>
-  <si>
-    <t>2000-03</t>
-  </si>
-  <si>
-    <t>2000-04</t>
-  </si>
-  <si>
-    <t>2000-05</t>
-  </si>
-  <si>
-    <t>2000-06</t>
-  </si>
-  <si>
-    <t>2000-07</t>
-  </si>
-  <si>
-    <t>2000-08</t>
-  </si>
-  <si>
-    <t>2000-09</t>
-  </si>
-  <si>
-    <t>2000-10</t>
-  </si>
-  <si>
-    <t>2000-11</t>
-  </si>
-  <si>
-    <t>2000-12</t>
-  </si>
-  <si>
-    <t>2001-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2001-03</t>
-  </si>
-  <si>
-    <t>2001-04</t>
-  </si>
-  <si>
-    <t>2001-05</t>
-  </si>
-  <si>
-    <t>2001-06</t>
-  </si>
-  <si>
-    <t>2001-07</t>
-  </si>
-  <si>
-    <t>2001-08</t>
-  </si>
-  <si>
-    <t>2001-09</t>
-  </si>
-  <si>
-    <t>2001-10</t>
-  </si>
-  <si>
-    <t>2001-11</t>
-  </si>
-  <si>
-    <t>2001-12</t>
-  </si>
-  <si>
-    <t>2002-01</t>
-  </si>
-  <si>
-    <t>2002-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2002-04</t>
-  </si>
-  <si>
-    <t>2002-05</t>
-  </si>
-  <si>
-    <t>2002-06</t>
-  </si>
-  <si>
-    <t>2002-07</t>
-  </si>
-  <si>
-    <t>2002-08</t>
-  </si>
-  <si>
-    <t>2002-09</t>
-  </si>
-  <si>
-    <t>2002-10</t>
-  </si>
-  <si>
-    <t>2002-11</t>
-  </si>
-  <si>
-    <t>2002-12</t>
-  </si>
-  <si>
-    <t>2003-01</t>
-  </si>
-  <si>
-    <t>2003-02</t>
-  </si>
-  <si>
-    <t>2003-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2003-05</t>
-  </si>
-  <si>
-    <t>2003-06</t>
-  </si>
-  <si>
-    <t>2003-07</t>
-  </si>
-  <si>
-    <t>2003-08</t>
-  </si>
-  <si>
-    <t>2003-09</t>
-  </si>
-  <si>
-    <t>2003-10</t>
-  </si>
-  <si>
-    <t>2003-11</t>
-  </si>
-  <si>
-    <t>2003-12</t>
-  </si>
-  <si>
-    <t>2004-01</t>
-  </si>
-  <si>
-    <t>2004-02</t>
-  </si>
-  <si>
-    <t>2004-03</t>
-  </si>
-  <si>
-    <t>2004-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2004-06</t>
-  </si>
-  <si>
-    <t>2004-07</t>
-  </si>
-  <si>
-    <t>2004-08</t>
-  </si>
-  <si>
-    <t>2004-09</t>
-  </si>
-  <si>
-    <t>2004-10</t>
-  </si>
-  <si>
-    <t>2004-11</t>
-  </si>
-  <si>
-    <t>2004-12</t>
-  </si>
-  <si>
-    <t>2005-01</t>
-  </si>
-  <si>
-    <t>2005-02</t>
-  </si>
-  <si>
-    <t>2005-03</t>
-  </si>
-  <si>
-    <t>2005-04</t>
-  </si>
-  <si>
-    <t>2005-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2005-07</t>
-  </si>
-  <si>
-    <t>2005-08</t>
-  </si>
-  <si>
-    <t>2005-09</t>
-  </si>
-  <si>
-    <t>2005-10</t>
-  </si>
-  <si>
-    <t>2005-11</t>
-  </si>
-  <si>
-    <t>2005-12</t>
-  </si>
-  <si>
-    <t>2006-01</t>
-  </si>
-  <si>
-    <t>2006-02</t>
-  </si>
-  <si>
-    <t>2006-03</t>
-  </si>
-  <si>
-    <t>2006-04</t>
-  </si>
-  <si>
-    <t>2006-05</t>
-  </si>
-  <si>
-    <t>2006-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2006-08</t>
-  </si>
-  <si>
-    <t>2006-09</t>
-  </si>
-  <si>
-    <t>2006-10</t>
-  </si>
-  <si>
-    <t>2006-11</t>
-  </si>
-  <si>
-    <t>2006-12</t>
-  </si>
-  <si>
-    <t>2007-01</t>
-  </si>
-  <si>
-    <t>2007-02</t>
-  </si>
-  <si>
-    <t>2007-03</t>
-  </si>
-  <si>
-    <t>2007-04</t>
-  </si>
-  <si>
-    <t>2007-05</t>
-  </si>
-  <si>
-    <t>2007-06</t>
-  </si>
-  <si>
-    <t>2007-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2007-09</t>
-  </si>
-  <si>
-    <t>2007-10</t>
-  </si>
-  <si>
-    <t>2007-11</t>
-  </si>
-  <si>
-    <t>2007-12</t>
-  </si>
-  <si>
-    <t>2008-01</t>
-  </si>
-  <si>
-    <t>2008-02</t>
-  </si>
-  <si>
-    <t>2008-03</t>
-  </si>
-  <si>
-    <t>2008-04</t>
-  </si>
-  <si>
-    <t>2008-05</t>
-  </si>
-  <si>
-    <t>2008-06</t>
-  </si>
-  <si>
-    <t>2008-07</t>
-  </si>
-  <si>
-    <t>2008-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2008-11</t>
-  </si>
-  <si>
-    <t>2008-12</t>
-  </si>
-  <si>
-    <t>2009-01</t>
-  </si>
-  <si>
-    <t>2009-02</t>
-  </si>
-  <si>
-    <t>2009-03</t>
-  </si>
-  <si>
-    <t>2009-04</t>
-  </si>
-  <si>
-    <t>2009-05</t>
-  </si>
-  <si>
-    <t>2009-06</t>
-  </si>
-  <si>
-    <t>2009-07</t>
-  </si>
-  <si>
-    <t>2009-08</t>
-  </si>
-  <si>
-    <t>2009-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2009-11</t>
-  </si>
-  <si>
-    <t>2009-12</t>
-  </si>
-  <si>
-    <t>2010-01</t>
-  </si>
-  <si>
-    <t>2010-02</t>
-  </si>
-  <si>
-    <t>2010-03</t>
-  </si>
-  <si>
-    <t>2010-04</t>
-  </si>
-  <si>
-    <t>2010-05</t>
-  </si>
-  <si>
-    <t>2010-06</t>
-  </si>
-  <si>
-    <t>2010-07</t>
-  </si>
-  <si>
-    <t>2010-08</t>
-  </si>
-  <si>
-    <t>2010-09</t>
-  </si>
-  <si>
-    <t>2010-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
-  </si>
-  <si>
-    <t>2020-01</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>2020-03</t>
-  </si>
-  <si>
-    <t>2020-04</t>
-  </si>
-  <si>
-    <t>2020-05</t>
-  </si>
-  <si>
-    <t>2020-06</t>
-  </si>
-  <si>
-    <t>2020-07</t>
-  </si>
-  <si>
-    <t>2020-08</t>
-  </si>
-  <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2020-10</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>2020-12</t>
-  </si>
-  <si>
-    <t>2021-01</t>
-  </si>
-  <si>
-    <t>2021-02</t>
-  </si>
-  <si>
-    <t>2021-03</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>2021-05</t>
-  </si>
-  <si>
-    <t>2021-06</t>
-  </si>
-  <si>
-    <t>2021-07</t>
-  </si>
-  <si>
-    <t>2021-08</t>
-  </si>
-  <si>
-    <t>2021-09</t>
-  </si>
-  <si>
-    <t>2021-10</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1278,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J296"/>
+  <dimension ref="A1:J299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,41 +366,63 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>end_of_month</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>m1_hkd</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>m1_fc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>m1_total</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>m2_hkd</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>m2_fc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>m2_total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>m3_hkd</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>m3_fc</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>m3_total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1997-04</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>206031.074</v>
@@ -1350,9 +452,11 @@
         <v>2809858.07</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1997-05</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>205485.813</v>
@@ -1382,9 +486,11 @@
         <v>2846817.316</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1997-06</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>204921.936</v>
@@ -1414,9 +520,11 @@
         <v>2871178.125</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1997-07</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>207905.626</v>
@@ -1446,9 +554,11 @@
         <v>2893766.827</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1997-08</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>200434.697</v>
@@ -1478,9 +588,11 @@
         <v>2878297.714</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1997-09</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>204059.998</v>
@@ -1510,9 +622,11 @@
         <v>2933341.956</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>1997-10</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>199721.279</v>
@@ -1542,9 +656,11 @@
         <v>2911183.427</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>1997-11</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>185015.842</v>
@@ -1574,9 +690,11 @@
         <v>2874075.985</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>1997-12</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>188134.52</v>
@@ -1606,9 +724,11 @@
         <v>2871424.746</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>1998-01</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>192060.377</v>
@@ -1638,9 +758,11 @@
         <v>2898793.871</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>1998-02</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>182624.109</v>
@@ -1670,9 +792,11 @@
         <v>2931754.066</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>1998-03</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>185507.005</v>
@@ -1702,9 +826,11 @@
         <v>2943150.29</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>1998-04</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>183748.936</v>
@@ -1734,9 +860,11 @@
         <v>2933381.467</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>1998-05</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>173106.736</v>
@@ -1766,9 +894,11 @@
         <v>2902270.813</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>1998-06</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>170182.101</v>
@@ -1798,9 +928,11 @@
         <v>2908120.735</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1998-07</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>170439.431</v>
@@ -1830,9 +962,11 @@
         <v>3012599.52</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1998-08</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>167162.961</v>
@@ -1862,9 +996,11 @@
         <v>3061563.821</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1998-09</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>168944.401</v>
@@ -1894,9 +1030,11 @@
         <v>3100220.416</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1998-10</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>173238.04</v>
@@ -1926,9 +1064,11 @@
         <v>3164212.053</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1998-11</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>179029.193</v>
@@ -1958,9 +1098,11 @@
         <v>3149203.701</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1998-12</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>178259.947</v>
@@ -1990,9 +1132,11 @@
         <v>3168198.585</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1999-01</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>177457.883</v>
@@ -2022,9 +1166,11 @@
         <v>3183641.032</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1999-02</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>179055.637</v>
@@ -2054,9 +1200,11 @@
         <v>3166762.248</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>33</v>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1999-03</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>181773.303</v>
@@ -2086,9 +1234,11 @@
         <v>3188957.195</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1999-04</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>180110.58</v>
@@ -2118,9 +1268,11 @@
         <v>3212704.841</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1999-05</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>178100.734</v>
@@ -2150,9 +1302,11 @@
         <v>3199085.329</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
-        <v>36</v>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1999-06</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>182069.673</v>
@@ -2182,9 +1336,11 @@
         <v>3220474.823</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
-        <v>37</v>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1999-07</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>178533.328</v>
@@ -2214,9 +1370,11 @@
         <v>3262374.168</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1999-08</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>182764.592</v>
@@ -2246,9 +1404,11 @@
         <v>3268950.961</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
-        <v>39</v>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1999-09</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>186617.239</v>
@@ -2278,9 +1438,11 @@
         <v>3325784.307</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
-        <v>40</v>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1999-10</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>187691.606</v>
@@ -2310,9 +1472,11 @@
         <v>3323335.743</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>41</v>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>1999-11</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>188763.461</v>
@@ -2342,9 +1506,11 @@
         <v>3401980.922</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>42</v>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>1999-12</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>205338.964</v>
@@ -2374,9 +1540,11 @@
         <v>3434466.777</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>43</v>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>217485.387</v>
@@ -2406,9 +1574,11 @@
         <v>3400941.458</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>44</v>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2000-02</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>219906.489</v>
@@ -2438,9 +1608,11 @@
         <v>3402739.631</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="s">
-        <v>45</v>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2000-03</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>199328.265</v>
@@ -2470,9 +1642,11 @@
         <v>3434137.221</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="s">
-        <v>46</v>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2000-04</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>192270.625</v>
@@ -2502,9 +1676,11 @@
         <v>3444208.811</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="s">
-        <v>47</v>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2000-05</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>191030.657</v>
@@ -2534,9 +1710,11 @@
         <v>3428425.379</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="s">
-        <v>48</v>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2000-06</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>193112.136</v>
@@ -2566,9 +1744,11 @@
         <v>3511120.161</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>49</v>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2000-07</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>197082.477</v>
@@ -2598,9 +1778,11 @@
         <v>3529629.046</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>50</v>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2000-08</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>196036.072</v>
@@ -2630,9 +1812,11 @@
         <v>3602141.952</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>51</v>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2000-09</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>194214.78</v>
@@ -2662,9 +1846,11 @@
         <v>3597562.496</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
-        <v>52</v>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2000-10</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>201076.322</v>
@@ -2694,9 +1880,11 @@
         <v>3601411.37</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="s">
-        <v>53</v>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2000-11</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>202227.328</v>
@@ -2726,9 +1914,11 @@
         <v>3664675.246</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
-        <v>54</v>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2000-12</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>203966.371</v>
@@ -2758,9 +1948,11 @@
         <v>3692752.667</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>55</v>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2001-01</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>216258.154</v>
@@ -2790,9 +1982,11 @@
         <v>3677272.529</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
-        <v>56</v>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>206032.756</v>
@@ -2822,9 +2016,11 @@
         <v>3653716.501</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2001-03</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>198653.292</v>
@@ -2854,9 +2050,11 @@
         <v>3599550.898</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2001-04</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>197840.659</v>
@@ -2886,9 +2084,11 @@
         <v>3622380.631</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2001-05</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>199687.709</v>
@@ -2918,9 +2118,11 @@
         <v>3639844.503</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2001-06</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>200695.004</v>
@@ -2950,9 +2152,11 @@
         <v>3650160.779</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2001-07</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>206260.31</v>
@@ -2982,9 +2186,11 @@
         <v>3639825.888</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>62</v>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2001-08</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>206648.463</v>
@@ -3014,9 +2220,11 @@
         <v>3686015.455</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
-        <v>63</v>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2001-09</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>211028.554</v>
@@ -3046,9 +2254,11 @@
         <v>3652296.761</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
-        <v>64</v>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2001-10</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>221217.82</v>
@@ -3078,9 +2288,11 @@
         <v>3642727.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
-        <v>65</v>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2001-11</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>221303.087</v>
@@ -3110,9 +2322,11 @@
         <v>3634086.005</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
-        <v>66</v>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2001-12</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>229840.815</v>
@@ -3142,9 +2356,11 @@
         <v>3594130.07</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
-        <v>67</v>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2002-01</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>233888.887</v>
@@ -3174,9 +2390,11 @@
         <v>3566866.987</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
-        <v>68</v>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2002-02</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>234997.154</v>
@@ -3206,9 +2424,11 @@
         <v>3499215.502</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="s">
-        <v>69</v>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>229715.344</v>
@@ -3238,9 +2458,11 @@
         <v>3482344.358</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
-        <v>70</v>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2002-04</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>230729.434</v>
@@ -3270,9 +2492,11 @@
         <v>3512635.32</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1" t="s">
-        <v>71</v>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2002-05</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>233525.165</v>
@@ -3302,9 +2526,11 @@
         <v>3535760.282</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
-        <v>72</v>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2002-06</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>233553.093</v>
@@ -3334,9 +2560,11 @@
         <v>3542710.138</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1" t="s">
-        <v>73</v>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2002-07</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>238573.052</v>
@@ -3366,9 +2594,11 @@
         <v>3502500.412</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1" t="s">
-        <v>74</v>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2002-08</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>236652.397</v>
@@ -3398,9 +2628,11 @@
         <v>3508007.106</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1" t="s">
-        <v>75</v>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2002-09</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>241675.908</v>
@@ -3430,9 +2662,11 @@
         <v>3516908.085</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1" t="s">
-        <v>76</v>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2002-10</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>245723.462</v>
@@ -3462,9 +2696,11 @@
         <v>3541009.603</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1" t="s">
-        <v>77</v>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2002-11</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>247697.44</v>
@@ -3494,9 +2730,11 @@
         <v>3561520.115</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1" t="s">
-        <v>78</v>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2002-12</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>259410.57</v>
@@ -3526,9 +2764,11 @@
         <v>3561852.417</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
-        <v>79</v>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2003-01</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>266331.19</v>
@@ -3558,9 +2798,11 @@
         <v>3575617.326</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="s">
-        <v>80</v>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2003-02</t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>259841.214</v>
@@ -3590,9 +2832,11 @@
         <v>3568943.502</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1" t="s">
-        <v>81</v>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2003-03</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>260421.568</v>
@@ -3622,9 +2866,11 @@
         <v>3548561.354</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="s">
-        <v>82</v>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
       </c>
       <c r="B74" t="n">
         <v>259157.623</v>
@@ -3654,9 +2900,11 @@
         <v>3573340.462</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1" t="s">
-        <v>83</v>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2003-05</t>
+        </is>
       </c>
       <c r="B75" t="n">
         <v>264405.232</v>
@@ -3686,9 +2934,11 @@
         <v>3616533.369</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1" t="s">
-        <v>84</v>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2003-06</t>
+        </is>
       </c>
       <c r="B76" t="n">
         <v>277140.932</v>
@@ -3718,9 +2968,11 @@
         <v>3626091.738</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1" t="s">
-        <v>85</v>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2003-07</t>
+        </is>
       </c>
       <c r="B77" t="n">
         <v>281982.034</v>
@@ -3750,9 +3002,11 @@
         <v>3650859.949</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1" t="s">
-        <v>86</v>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2003-08</t>
+        </is>
       </c>
       <c r="B78" t="n">
         <v>285287.607</v>
@@ -3782,9 +3036,11 @@
         <v>3672396.98</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1" t="s">
-        <v>87</v>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2003-09</t>
+        </is>
       </c>
       <c r="B79" t="n">
         <v>299019.412</v>
@@ -3814,9 +3070,11 @@
         <v>3712281.769</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1" t="s">
-        <v>88</v>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2003-10</t>
+        </is>
       </c>
       <c r="B80" t="n">
         <v>347044.548</v>
@@ -3846,9 +3104,11 @@
         <v>3816582.869</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1" t="s">
-        <v>89</v>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2003-11</t>
+        </is>
       </c>
       <c r="B81" t="n">
         <v>334036.037</v>
@@ -3878,9 +3138,11 @@
         <v>3794691.078</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1" t="s">
-        <v>90</v>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2003-12</t>
+        </is>
       </c>
       <c r="B82" t="n">
         <v>354752.149</v>
@@ -3910,9 +3172,11 @@
         <v>3858043.6</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1" t="s">
-        <v>91</v>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2004-01</t>
+        </is>
       </c>
       <c r="B83" t="n">
         <v>371279.995</v>
@@ -3942,9 +3206,11 @@
         <v>3952272.688</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1" t="s">
-        <v>92</v>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2004-02</t>
+        </is>
       </c>
       <c r="B84" t="n">
         <v>368215.418</v>
@@ -3974,9 +3240,11 @@
         <v>3990689.553</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1" t="s">
-        <v>93</v>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2004-03</t>
+        </is>
       </c>
       <c r="B85" t="n">
         <v>376266.669</v>
@@ -4006,9 +3274,11 @@
         <v>3858504.382</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1" t="s">
-        <v>94</v>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2004-04</t>
+        </is>
       </c>
       <c r="B86" t="n">
         <v>375788.976</v>
@@ -4038,9 +3308,11 @@
         <v>3848511.399</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1" t="s">
-        <v>95</v>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
       </c>
       <c r="B87" t="n">
         <v>376336.2</v>
@@ -4070,9 +3342,11 @@
         <v>3857002.91</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="1" t="s">
-        <v>96</v>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2004-06</t>
+        </is>
       </c>
       <c r="B88" t="n">
         <v>385100.437</v>
@@ -4102,9 +3376,11 @@
         <v>3875749.942</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1" t="s">
-        <v>97</v>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2004-07</t>
+        </is>
       </c>
       <c r="B89" t="n">
         <v>374089.322</v>
@@ -4134,9 +3410,11 @@
         <v>3865241.059</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1" t="s">
-        <v>98</v>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2004-08</t>
+        </is>
       </c>
       <c r="B90" t="n">
         <v>370514.939</v>
@@ -4166,9 +3444,11 @@
         <v>3885808.72</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1" t="s">
-        <v>99</v>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2004-09</t>
+        </is>
       </c>
       <c r="B91" t="n">
         <v>371163.409</v>
@@ -4198,9 +3478,11 @@
         <v>3948800.573</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1" t="s">
-        <v>100</v>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2004-10</t>
+        </is>
       </c>
       <c r="B92" t="n">
         <v>385937.683</v>
@@ -4230,9 +3512,11 @@
         <v>4014531.261</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="1" t="s">
-        <v>101</v>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2004-11</t>
+        </is>
       </c>
       <c r="B93" t="n">
         <v>397495.557</v>
@@ -4262,9 +3546,11 @@
         <v>4161937.142</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="1" t="s">
-        <v>102</v>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2004-12</t>
+        </is>
       </c>
       <c r="B94" t="n">
         <v>412628.674</v>
@@ -4294,9 +3580,11 @@
         <v>4189544.339</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1" t="s">
-        <v>103</v>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2005-01</t>
+        </is>
       </c>
       <c r="B95" t="n">
         <v>438418.213</v>
@@ -4326,9 +3614,11 @@
         <v>4187742.693</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="1" t="s">
-        <v>104</v>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2005-02</t>
+        </is>
       </c>
       <c r="B96" t="n">
         <v>408587.568</v>
@@ -4358,9 +3648,11 @@
         <v>4245399.636</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="1" t="s">
-        <v>105</v>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2005-03</t>
+        </is>
       </c>
       <c r="B97" t="n">
         <v>387167.76</v>
@@ -4390,9 +3682,11 @@
         <v>4189596.242</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="1" t="s">
-        <v>106</v>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2005-04</t>
+        </is>
       </c>
       <c r="B98" t="n">
         <v>373206.544</v>
@@ -4422,9 +3716,11 @@
         <v>4202645.684</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
-      <c r="A99" s="1" t="s">
-        <v>107</v>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2005-05</t>
+        </is>
       </c>
       <c r="B99" t="n">
         <v>364173.58</v>
@@ -4454,9 +3750,11 @@
         <v>4159267.059</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
-      <c r="A100" s="1" t="s">
-        <v>108</v>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
       </c>
       <c r="B100" t="n">
         <v>360889.045</v>
@@ -4486,9 +3784,11 @@
         <v>4192238.223</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="1" t="s">
-        <v>109</v>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2005-07</t>
+        </is>
       </c>
       <c r="B101" t="n">
         <v>359189.578</v>
@@ -4518,9 +3818,11 @@
         <v>4218103.843</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="1" t="s">
-        <v>110</v>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2005-08</t>
+        </is>
       </c>
       <c r="B102" t="n">
         <v>350858.661</v>
@@ -4550,9 +3852,11 @@
         <v>4242335.057</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="1" t="s">
-        <v>111</v>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2005-09</t>
+        </is>
       </c>
       <c r="B103" t="n">
         <v>350710.81</v>
@@ -4582,9 +3886,11 @@
         <v>4270883.444</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="1" t="s">
-        <v>112</v>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2005-10</t>
+        </is>
       </c>
       <c r="B104" t="n">
         <v>359427.406</v>
@@ -4614,9 +3920,11 @@
         <v>4300243.952</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
-      <c r="A105" s="1" t="s">
-        <v>113</v>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>2005-11</t>
+        </is>
       </c>
       <c r="B105" t="n">
         <v>346218.891</v>
@@ -4646,9 +3954,11 @@
         <v>4347048.982</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="1" t="s">
-        <v>114</v>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>2005-12</t>
+        </is>
       </c>
       <c r="B106" t="n">
         <v>348247.68</v>
@@ -4678,9 +3988,11 @@
         <v>4407188.43</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
-      <c r="A107" s="1" t="s">
-        <v>115</v>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>2006-01</t>
+        </is>
       </c>
       <c r="B107" t="n">
         <v>360237.124</v>
@@ -4710,9 +4022,11 @@
         <v>4472801.381</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
-      <c r="A108" s="1" t="s">
-        <v>116</v>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>2006-02</t>
+        </is>
       </c>
       <c r="B108" t="n">
         <v>501274.043</v>
@@ -4742,9 +4056,11 @@
         <v>4619304.983</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="1" t="s">
-        <v>117</v>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>2006-03</t>
+        </is>
       </c>
       <c r="B109" t="n">
         <v>356869.028</v>
@@ -4774,9 +4090,11 @@
         <v>4551810.4</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="1" t="s">
-        <v>118</v>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>2006-04</t>
+        </is>
       </c>
       <c r="B110" t="n">
         <v>358320.821</v>
@@ -4806,9 +4124,11 @@
         <v>4656566.46</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
-      <c r="A111" s="1" t="s">
-        <v>119</v>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>2006-05</t>
+        </is>
       </c>
       <c r="B111" t="n">
         <v>552986.7</v>
@@ -4838,9 +4158,11 @@
         <v>4895313.985</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
-      <c r="A112" s="1" t="s">
-        <v>120</v>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>2006-06</t>
+        </is>
       </c>
       <c r="B112" t="n">
         <v>353296.578</v>
@@ -4870,9 +4192,11 @@
         <v>4666865.192</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
-      <c r="A113" s="1" t="s">
-        <v>121</v>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
       </c>
       <c r="B113" t="n">
         <v>352381.272</v>
@@ -4902,9 +4226,11 @@
         <v>4703136.702</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="1" t="s">
-        <v>122</v>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>2006-08</t>
+        </is>
       </c>
       <c r="B114" t="n">
         <v>356544.739</v>
@@ -4934,9 +4260,11 @@
         <v>4790621.371</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
-      <c r="A115" s="1" t="s">
-        <v>123</v>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>2006-09</t>
+        </is>
       </c>
       <c r="B115" t="n">
         <v>367183.203</v>
@@ -4966,9 +4294,11 @@
         <v>4886502.429</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
-      <c r="A116" s="1" t="s">
-        <v>124</v>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>2006-10</t>
+        </is>
       </c>
       <c r="B116" t="n">
         <v>392775.317</v>
@@ -4998,9 +4328,11 @@
         <v>4897363.166</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
-      <c r="A117" s="1" t="s">
-        <v>125</v>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>2006-11</t>
+        </is>
       </c>
       <c r="B117" t="n">
         <v>570544.335</v>
@@ -5030,9 +4362,11 @@
         <v>5225214.608</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
-      <c r="A118" s="1" t="s">
-        <v>126</v>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>2006-12</t>
+        </is>
       </c>
       <c r="B118" t="n">
         <v>387908.818</v>
@@ -5062,9 +4396,11 @@
         <v>5089740.897</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
-      <c r="A119" s="1" t="s">
-        <v>127</v>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>2007-01</t>
+        </is>
       </c>
       <c r="B119" t="n">
         <v>389561.562</v>
@@ -5094,9 +4430,11 @@
         <v>5175302.21</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
-      <c r="A120" s="1" t="s">
-        <v>128</v>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>2007-02</t>
+        </is>
       </c>
       <c r="B120" t="n">
         <v>399856.905</v>
@@ -5126,9 +4464,11 @@
         <v>5349097.368</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
-      <c r="A121" s="1" t="s">
-        <v>129</v>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>2007-03</t>
+        </is>
       </c>
       <c r="B121" t="n">
         <v>418829.103</v>
@@ -5158,9 +4498,11 @@
         <v>5302796.062</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="1" t="s">
-        <v>130</v>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>2007-04</t>
+        </is>
       </c>
       <c r="B122" t="n">
         <v>392052.553</v>
@@ -5190,9 +4532,11 @@
         <v>5262372.873</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
-      <c r="A123" s="1" t="s">
-        <v>131</v>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>2007-05</t>
+        </is>
       </c>
       <c r="B123" t="n">
         <v>390938.235</v>
@@ -5222,9 +4566,11 @@
         <v>5360807.977</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
-      <c r="A124" s="1" t="s">
-        <v>132</v>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>2007-06</t>
+        </is>
       </c>
       <c r="B124" t="n">
         <v>504948.854</v>
@@ -5254,9 +4600,11 @@
         <v>5624125.5</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
-      <c r="A125" s="1" t="s">
-        <v>133</v>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>2007-07</t>
+        </is>
       </c>
       <c r="B125" t="n">
         <v>394456.926</v>
@@ -5286,9 +4634,11 @@
         <v>5512162.648</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
-      <c r="A126" s="1" t="s">
-        <v>134</v>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
       </c>
       <c r="B126" t="n">
         <v>395126.122</v>
@@ -5318,9 +4668,11 @@
         <v>5601956.076</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
-      <c r="A127" s="1" t="s">
-        <v>135</v>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>2007-09</t>
+        </is>
       </c>
       <c r="B127" t="n">
         <v>483462.626</v>
@@ -5350,9 +4702,11 @@
         <v>5975806.255</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
-      <c r="A128" s="1" t="s">
-        <v>136</v>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>2007-10</t>
+        </is>
       </c>
       <c r="B128" t="n">
         <v>522344.958</v>
@@ -5382,9 +4736,11 @@
         <v>6439854.428</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
-      <c r="A129" s="1" t="s">
-        <v>137</v>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>2007-11</t>
+        </is>
       </c>
       <c r="B129" t="n">
         <v>762832.377</v>
@@ -5414,9 +4770,11 @@
         <v>6371284.736</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="1" t="s">
-        <v>138</v>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>2007-12</t>
+        </is>
       </c>
       <c r="B130" t="n">
         <v>454342.278</v>
@@ -5446,9 +4804,11 @@
         <v>6139758.138</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
-      <c r="A131" s="1" t="s">
-        <v>139</v>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>2008-01</t>
+        </is>
       </c>
       <c r="B131" t="n">
         <v>465464.901</v>
@@ -5478,9 +4838,11 @@
         <v>6050810.745</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
-      <c r="A132" s="1" t="s">
-        <v>140</v>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2008-02</t>
+        </is>
       </c>
       <c r="B132" t="n">
         <v>461679.301</v>
@@ -5510,9 +4872,11 @@
         <v>6080312.559</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="1" t="s">
-        <v>141</v>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>2008-03</t>
+        </is>
       </c>
       <c r="B133" t="n">
         <v>457591.474</v>
@@ -5542,9 +4906,11 @@
         <v>6017338.07</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="1" t="s">
-        <v>142</v>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>2008-04</t>
+        </is>
       </c>
       <c r="B134" t="n">
         <v>449981.505</v>
@@ -5574,9 +4940,11 @@
         <v>6023793.925</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="1" t="s">
-        <v>143</v>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>2008-05</t>
+        </is>
       </c>
       <c r="B135" t="n">
         <v>448097.821</v>
@@ -5606,9 +4974,11 @@
         <v>5974578.018</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="1" t="s">
-        <v>144</v>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>2008-06</t>
+        </is>
       </c>
       <c r="B136" t="n">
         <v>452845.245</v>
@@ -5638,9 +5008,11 @@
         <v>5944671.299</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="1" t="s">
-        <v>145</v>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>2008-07</t>
+        </is>
       </c>
       <c r="B137" t="n">
         <v>444683.864</v>
@@ -5670,9 +5042,11 @@
         <v>5961736.868</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
-      <c r="A138" s="1" t="s">
-        <v>146</v>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>2008-08</t>
+        </is>
       </c>
       <c r="B138" t="n">
         <v>443269.678</v>
@@ -5702,9 +5076,11 @@
         <v>5921542.714</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
-      <c r="A139" s="1" t="s">
-        <v>147</v>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
       </c>
       <c r="B139" t="n">
         <v>447626.563</v>
@@ -5734,9 +5110,11 @@
         <v>6091633.038</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
-      <c r="A140" s="1" t="s">
-        <v>148</v>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>2008-10</t>
+        </is>
       </c>
       <c r="B140" t="n">
         <v>464996.071</v>
@@ -5766,9 +5144,11 @@
         <v>6054315.327</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
-      <c r="A141" s="1" t="s">
-        <v>149</v>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>2008-11</t>
+        </is>
       </c>
       <c r="B141" t="n">
         <v>463608.328</v>
@@ -5798,9 +5178,11 @@
         <v>6145955.934</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
-      <c r="A142" s="1" t="s">
-        <v>150</v>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>2008-12</t>
+        </is>
       </c>
       <c r="B142" t="n">
         <v>491115.126</v>
@@ -5830,9 +5212,11 @@
         <v>6300750.693</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
-      <c r="A143" s="1" t="s">
-        <v>151</v>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>2009-01</t>
+        </is>
       </c>
       <c r="B143" t="n">
         <v>511190.15</v>
@@ -5862,9 +5246,11 @@
         <v>6242413.787</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
-      <c r="A144" s="1" t="s">
-        <v>152</v>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>2009-02</t>
+        </is>
       </c>
       <c r="B144" t="n">
         <v>511215.992</v>
@@ -5894,9 +5280,11 @@
         <v>6171441.093</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
-      <c r="A145" s="1" t="s">
-        <v>153</v>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>2009-03</t>
+        </is>
       </c>
       <c r="B145" t="n">
         <v>528632.601</v>
@@ -5926,9 +5314,11 @@
         <v>6265738.228</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="1" t="s">
-        <v>154</v>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>2009-04</t>
+        </is>
       </c>
       <c r="B146" t="n">
         <v>526963.059</v>
@@ -5958,9 +5348,11 @@
         <v>6282450.296</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
-      <c r="A147" s="1" t="s">
-        <v>155</v>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>2009-05</t>
+        </is>
       </c>
       <c r="B147" t="n">
         <v>567727.357</v>
@@ -5990,9 +5382,11 @@
         <v>6404940.365</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
-      <c r="A148" s="1" t="s">
-        <v>156</v>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>2009-06</t>
+        </is>
       </c>
       <c r="B148" t="n">
         <v>581964.97</v>
@@ -6022,9 +5416,11 @@
         <v>6514057.906</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
-      <c r="A149" s="1" t="s">
-        <v>157</v>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>2009-07</t>
+        </is>
       </c>
       <c r="B149" t="n">
         <v>602650.9080000001</v>
@@ -6054,9 +5450,11 @@
         <v>6524566.197</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
-      <c r="A150" s="1" t="s">
-        <v>158</v>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>2009-08</t>
+        </is>
       </c>
       <c r="B150" t="n">
         <v>619287.59</v>
@@ -6086,9 +5484,11 @@
         <v>6529758.993</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
-      <c r="A151" s="1" t="s">
-        <v>159</v>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>2009-09</t>
+        </is>
       </c>
       <c r="B151" t="n">
         <v>694046.2659999999</v>
@@ -6118,9 +5518,11 @@
         <v>6665330.096</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="1" t="s">
-        <v>160</v>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
       </c>
       <c r="B152" t="n">
         <v>700457.905</v>
@@ -6150,9 +5552,11 @@
         <v>6720154.304</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
-      <c r="A153" s="1" t="s">
-        <v>161</v>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>2009-11</t>
+        </is>
       </c>
       <c r="B153" t="n">
         <v>693429.6090000001</v>
@@ -6182,9 +5586,11 @@
         <v>6752024.281</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
-      <c r="A154" s="1" t="s">
-        <v>162</v>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>2009-12</t>
+        </is>
       </c>
       <c r="B154" t="n">
         <v>671241.139</v>
@@ -6214,9 +5620,11 @@
         <v>6626843.099</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
-      <c r="A155" s="1" t="s">
-        <v>163</v>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>2010-01</t>
+        </is>
       </c>
       <c r="B155" t="n">
         <v>679651.2169999999</v>
@@ -6246,9 +5654,11 @@
         <v>6580908.649</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
-      <c r="A156" s="1" t="s">
-        <v>164</v>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>2010-02</t>
+        </is>
       </c>
       <c r="B156" t="n">
         <v>694727.355</v>
@@ -6278,9 +5688,11 @@
         <v>6575324.241</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="1" t="s">
-        <v>165</v>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>2010-03</t>
+        </is>
       </c>
       <c r="B157" t="n">
         <v>713251.537</v>
@@ -6310,9 +5722,11 @@
         <v>6623604.924</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
-      <c r="A158" s="1" t="s">
-        <v>166</v>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>2010-04</t>
+        </is>
       </c>
       <c r="B158" t="n">
         <v>739443.393</v>
@@ -6342,9 +5756,11 @@
         <v>6778622.104</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
-      <c r="A159" s="1" t="s">
-        <v>167</v>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>2010-05</t>
+        </is>
       </c>
       <c r="B159" t="n">
         <v>697687.8199999999</v>
@@ -6374,9 +5790,11 @@
         <v>6520000.791</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
-      <c r="A160" s="1" t="s">
-        <v>168</v>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>2010-06</t>
+        </is>
       </c>
       <c r="B160" t="n">
         <v>671557.6090000001</v>
@@ -6406,9 +5824,11 @@
         <v>6599938.457</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
-      <c r="A161" s="1" t="s">
-        <v>169</v>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>2010-07</t>
+        </is>
       </c>
       <c r="B161" t="n">
         <v>677852.678</v>
@@ -6438,9 +5858,11 @@
         <v>6718177.107</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
-      <c r="A162" s="1" t="s">
-        <v>170</v>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>2010-08</t>
+        </is>
       </c>
       <c r="B162" t="n">
         <v>697095.8100000001</v>
@@ -6470,9 +5892,11 @@
         <v>6762078.163</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
-      <c r="A163" s="1" t="s">
-        <v>171</v>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>2010-09</t>
+        </is>
       </c>
       <c r="B163" t="n">
         <v>831729.593</v>
@@ -6502,9 +5926,11 @@
         <v>7010349.289</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
-      <c r="A164" s="1" t="s">
-        <v>172</v>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>2010-10</t>
+        </is>
       </c>
       <c r="B164" t="n">
         <v>866487.306</v>
@@ -6534,9 +5960,11 @@
         <v>7327800.137</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
-      <c r="A165" s="1" t="s">
-        <v>173</v>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
       </c>
       <c r="B165" t="n">
         <v>751178.156</v>
@@ -6566,9 +5994,11 @@
         <v>7132139.988</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
-      <c r="A166" s="1" t="s">
-        <v>174</v>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>2010-12</t>
+        </is>
       </c>
       <c r="B166" t="n">
         <v>730092.901</v>
@@ -6598,9 +6028,11 @@
         <v>7156259.506</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="1" t="s">
-        <v>175</v>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>2011-01</t>
+        </is>
       </c>
       <c r="B167" t="n">
         <v>775721.05</v>
@@ -6630,9 +6062,11 @@
         <v>7284028.838</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
-      <c r="A168" s="1" t="s">
-        <v>176</v>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>2011-02</t>
+        </is>
       </c>
       <c r="B168" t="n">
         <v>764631.075</v>
@@ -6662,9 +6096,11 @@
         <v>7242393.001</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
-      <c r="A169" s="1" t="s">
-        <v>177</v>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>2011-03</t>
+        </is>
       </c>
       <c r="B169" t="n">
         <v>745847.058</v>
@@ -6694,9 +6130,11 @@
         <v>7399131.706</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
-      <c r="A170" s="1" t="s">
-        <v>178</v>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>2011-04</t>
+        </is>
       </c>
       <c r="B170" t="n">
         <v>755383.588</v>
@@ -6726,9 +6164,11 @@
         <v>7599339.724</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
-      <c r="A171" s="1" t="s">
-        <v>179</v>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>2011-05</t>
+        </is>
       </c>
       <c r="B171" t="n">
         <v>784802.255</v>
@@ -6758,9 +6198,11 @@
         <v>7677266.017</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
-      <c r="A172" s="1" t="s">
-        <v>180</v>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>2011-06</t>
+        </is>
       </c>
       <c r="B172" t="n">
         <v>755406.2070000001</v>
@@ -6790,9 +6232,11 @@
         <v>7649795.533</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
-      <c r="A173" s="1" t="s">
-        <v>181</v>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>2011-07</t>
+        </is>
       </c>
       <c r="B173" t="n">
         <v>782733.345</v>
@@ -6822,9 +6266,11 @@
         <v>7811818.582</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
-      <c r="A174" s="1" t="s">
-        <v>182</v>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>2011-08</t>
+        </is>
       </c>
       <c r="B174" t="n">
         <v>767679.347</v>
@@ -6854,9 +6300,11 @@
         <v>7798357.829</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
-      <c r="A175" s="1" t="s">
-        <v>183</v>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>2011-09</t>
+        </is>
       </c>
       <c r="B175" t="n">
         <v>781835.294</v>
@@ -6886,9 +6334,11 @@
         <v>7788981.839</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
-      <c r="A176" s="1" t="s">
-        <v>184</v>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>2011-10</t>
+        </is>
       </c>
       <c r="B176" t="n">
         <v>781778.468</v>
@@ -6918,9 +6368,11 @@
         <v>7939878.471</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
-      <c r="A177" s="1" t="s">
-        <v>185</v>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>2011-11</t>
+        </is>
       </c>
       <c r="B177" t="n">
         <v>774128.085</v>
@@ -6950,9 +6402,11 @@
         <v>8016769.192</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
-      <c r="A178" s="1" t="s">
-        <v>186</v>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>2011-12</t>
+        </is>
       </c>
       <c r="B178" t="n">
         <v>794726.404</v>
@@ -6982,9 +6436,11 @@
         <v>8081079.377</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
-      <c r="A179" s="1" t="s">
-        <v>187</v>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>2012-01</t>
+        </is>
       </c>
       <c r="B179" t="n">
         <v>786087.868</v>
@@ -7014,9 +6470,11 @@
         <v>8215406.471</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
-      <c r="A180" s="1" t="s">
-        <v>188</v>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>2012-02</t>
+        </is>
       </c>
       <c r="B180" t="n">
         <v>838271.206</v>
@@ -7046,9 +6504,11 @@
         <v>8315556.62</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
-      <c r="A181" s="1" t="s">
-        <v>189</v>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>2012-03</t>
+        </is>
       </c>
       <c r="B181" t="n">
         <v>803741.079</v>
@@ -7078,9 +6538,11 @@
         <v>8279033.667</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
-      <c r="A182" s="1" t="s">
-        <v>190</v>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>2012-04</t>
+        </is>
       </c>
       <c r="B182" t="n">
         <v>820975.325</v>
@@ -7110,9 +6572,11 @@
         <v>8364731.716</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
-      <c r="A183" s="1" t="s">
-        <v>191</v>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>2012-05</t>
+        </is>
       </c>
       <c r="B183" t="n">
         <v>814772.559</v>
@@ -7142,9 +6606,11 @@
         <v>8225481.61</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
-      <c r="A184" s="1" t="s">
-        <v>192</v>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>2012-06</t>
+        </is>
       </c>
       <c r="B184" t="n">
         <v>809505.214</v>
@@ -7174,9 +6640,11 @@
         <v>8335293.309</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
-      <c r="A185" s="1" t="s">
-        <v>193</v>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>2012-07</t>
+        </is>
       </c>
       <c r="B185" t="n">
         <v>829290.67</v>
@@ -7206,9 +6674,11 @@
         <v>8406205.9</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
-      <c r="A186" s="1" t="s">
-        <v>194</v>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>2012-08</t>
+        </is>
       </c>
       <c r="B186" t="n">
         <v>834472.13</v>
@@ -7238,9 +6708,11 @@
         <v>8486750.788000001</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
-      <c r="A187" s="1" t="s">
-        <v>195</v>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>2012-09</t>
+        </is>
       </c>
       <c r="B187" t="n">
         <v>862098.3199999999</v>
@@ -7270,9 +6742,11 @@
         <v>8600621.343</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
-      <c r="A188" s="1" t="s">
-        <v>196</v>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>2012-10</t>
+        </is>
       </c>
       <c r="B188" t="n">
         <v>884436.314</v>
@@ -7302,9 +6776,11 @@
         <v>8763037.397</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
-      <c r="A189" s="1" t="s">
-        <v>197</v>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>2012-11</t>
+        </is>
       </c>
       <c r="B189" t="n">
         <v>892731.977</v>
@@ -7334,9 +6810,11 @@
         <v>8840586.522</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
-      <c r="A190" s="1" t="s">
-        <v>198</v>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>2012-12</t>
+        </is>
       </c>
       <c r="B190" t="n">
         <v>920920.438</v>
@@ -7366,9 +6844,11 @@
         <v>8970396.498</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
-      <c r="A191" s="1" t="s">
-        <v>199</v>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>2013-01</t>
+        </is>
       </c>
       <c r="B191" t="n">
         <v>944704.518</v>
@@ -7398,9 +6878,11 @@
         <v>9231933.822000001</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
-      <c r="A192" s="1" t="s">
-        <v>200</v>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>2013-02</t>
+        </is>
       </c>
       <c r="B192" t="n">
         <v>952427.201</v>
@@ -7430,9 +6912,11 @@
         <v>9127717.256999999</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
-      <c r="A193" s="1" t="s">
-        <v>201</v>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>2013-03</t>
+        </is>
       </c>
       <c r="B193" t="n">
         <v>945074.23</v>
@@ -7462,9 +6946,11 @@
         <v>9069868.198999999</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
-      <c r="A194" s="1" t="s">
-        <v>202</v>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>2013-04</t>
+        </is>
       </c>
       <c r="B194" t="n">
         <v>948377.54</v>
@@ -7494,9 +6980,11 @@
         <v>9225384.681</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
-      <c r="A195" s="1" t="s">
-        <v>203</v>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>2013-05</t>
+        </is>
       </c>
       <c r="B195" t="n">
         <v>969104.493</v>
@@ -7526,9 +7014,11 @@
         <v>9336098.685000001</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
-      <c r="A196" s="1" t="s">
-        <v>204</v>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>2013-06</t>
+        </is>
       </c>
       <c r="B196" t="n">
         <v>956250.362</v>
@@ -7558,9 +7048,11 @@
         <v>9242688.163000001</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
-      <c r="A197" s="1" t="s">
-        <v>205</v>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>2013-07</t>
+        </is>
       </c>
       <c r="B197" t="n">
         <v>963627.8199999999</v>
@@ -7590,9 +7082,11 @@
         <v>9383072.015000001</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
-      <c r="A198" s="1" t="s">
-        <v>206</v>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>2013-08</t>
+        </is>
       </c>
       <c r="B198" t="n">
         <v>956981.424</v>
@@ -7622,9 +7116,11 @@
         <v>9445621.015000001</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
-      <c r="A199" s="1" t="s">
-        <v>207</v>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2013-09</t>
+        </is>
       </c>
       <c r="B199" t="n">
         <v>987295.067</v>
@@ -7654,9 +7150,11 @@
         <v>9750024.997</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
-      <c r="A200" s="1" t="s">
-        <v>208</v>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2013-10</t>
+        </is>
       </c>
       <c r="B200" t="n">
         <v>1002792.974</v>
@@ -7686,9 +7184,11 @@
         <v>9849246.659</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
-      <c r="A201" s="1" t="s">
-        <v>209</v>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2013-11</t>
+        </is>
       </c>
       <c r="B201" t="n">
         <v>1004938.114</v>
@@ -7718,9 +7218,11 @@
         <v>9956654.960000001</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
-      <c r="A202" s="1" t="s">
-        <v>210</v>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2013-12</t>
+        </is>
       </c>
       <c r="B202" t="n">
         <v>1000343.822</v>
@@ -7750,9 +7252,11 @@
         <v>10085242.754</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
-      <c r="A203" s="1" t="s">
-        <v>211</v>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2014-01</t>
+        </is>
       </c>
       <c r="B203" t="n">
         <v>999605.58</v>
@@ -7782,9 +7286,11 @@
         <v>10122232.077</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
-      <c r="A204" s="1" t="s">
-        <v>212</v>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2014-02</t>
+        </is>
       </c>
       <c r="B204" t="n">
         <v>1148259.295</v>
@@ -7814,9 +7320,11 @@
         <v>10301634.358</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
-      <c r="A205" s="1" t="s">
-        <v>213</v>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2014-03</t>
+        </is>
       </c>
       <c r="B205" t="n">
         <v>1014041.515</v>
@@ -7846,9 +7354,11 @@
         <v>10177899.482</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
-      <c r="A206" s="1" t="s">
-        <v>214</v>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2014-04</t>
+        </is>
       </c>
       <c r="B206" t="n">
         <v>1035650.54</v>
@@ -7878,9 +7388,11 @@
         <v>10382759.486</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
-      <c r="A207" s="1" t="s">
-        <v>215</v>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2014-05</t>
+        </is>
       </c>
       <c r="B207" t="n">
         <v>1030142.786</v>
@@ -7910,9 +7422,11 @@
         <v>10522686.809</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
-      <c r="A208" s="1" t="s">
-        <v>216</v>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2014-06</t>
+        </is>
       </c>
       <c r="B208" t="n">
         <v>1081474.617</v>
@@ -7942,9 +7456,11 @@
         <v>10632037.867</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
-      <c r="A209" s="1" t="s">
-        <v>217</v>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>2014-07</t>
+        </is>
       </c>
       <c r="B209" t="n">
         <v>1130463.485</v>
@@ -7974,9 +7490,11 @@
         <v>10886524.736</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
-      <c r="A210" s="1" t="s">
-        <v>218</v>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>2014-08</t>
+        </is>
       </c>
       <c r="B210" t="n">
         <v>1083866.864</v>
@@ -8006,9 +7524,11 @@
         <v>10897196.534</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
-      <c r="A211" s="1" t="s">
-        <v>219</v>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>2014-09</t>
+        </is>
       </c>
       <c r="B211" t="n">
         <v>1100139.335</v>
@@ -8038,9 +7558,11 @@
         <v>10947312.507</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
-      <c r="A212" s="1" t="s">
-        <v>220</v>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>2014-10</t>
+        </is>
       </c>
       <c r="B212" t="n">
         <v>1157433.551</v>
@@ -8070,9 +7592,11 @@
         <v>11047422.746</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
-      <c r="A213" s="1" t="s">
-        <v>221</v>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>2014-11</t>
+        </is>
       </c>
       <c r="B213" t="n">
         <v>1096389.931</v>
@@ -8102,9 +7626,11 @@
         <v>11074579.407</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
-      <c r="A214" s="1" t="s">
-        <v>222</v>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>2014-12</t>
+        </is>
       </c>
       <c r="B214" t="n">
         <v>1116674.812</v>
@@ -8134,9 +7660,11 @@
         <v>11048944.452</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
-      <c r="A215" s="1" t="s">
-        <v>223</v>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>2015-01</t>
+        </is>
       </c>
       <c r="B215" t="n">
         <v>1161487.021</v>
@@ -8166,9 +7694,11 @@
         <v>11167605.226</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
-      <c r="A216" s="1" t="s">
-        <v>224</v>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>2015-02</t>
+        </is>
       </c>
       <c r="B216" t="n">
         <v>1122446.836</v>
@@ -8198,9 +7728,11 @@
         <v>11159157.531</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
-      <c r="A217" s="1" t="s">
-        <v>225</v>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>2015-03</t>
+        </is>
       </c>
       <c r="B217" t="n">
         <v>1309830.575</v>
@@ -8230,9 +7762,11 @@
         <v>11378200.096</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
-      <c r="A218" s="1" t="s">
-        <v>226</v>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>2015-04</t>
+        </is>
       </c>
       <c r="B218" t="n">
         <v>1198788.401</v>
@@ -8262,9 +7796,11 @@
         <v>11450563.481</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
-      <c r="A219" s="1" t="s">
-        <v>227</v>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>2015-05</t>
+        </is>
       </c>
       <c r="B219" t="n">
         <v>1271914.542</v>
@@ -8294,9 +7830,11 @@
         <v>11483357.508</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
-      <c r="A220" s="1" t="s">
-        <v>228</v>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>2015-06</t>
+        </is>
       </c>
       <c r="B220" t="n">
         <v>1287541.433</v>
@@ -8326,9 +7864,11 @@
         <v>11469057.382</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
-      <c r="A221" s="1" t="s">
-        <v>229</v>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2015-07</t>
+        </is>
       </c>
       <c r="B221" t="n">
         <v>1234523.072</v>
@@ -8358,9 +7898,11 @@
         <v>11436002.063</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
-      <c r="A222" s="1" t="s">
-        <v>230</v>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2015-08</t>
+        </is>
       </c>
       <c r="B222" t="n">
         <v>1252469.923</v>
@@ -8390,9 +7932,11 @@
         <v>11536198.989</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
-      <c r="A223" s="1" t="s">
-        <v>231</v>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2015-09</t>
+        </is>
       </c>
       <c r="B223" t="n">
         <v>1265500.206</v>
@@ -8422,9 +7966,11 @@
         <v>11481267.095</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
-      <c r="A224" s="1" t="s">
-        <v>232</v>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2015-10</t>
+        </is>
       </c>
       <c r="B224" t="n">
         <v>1279049.122</v>
@@ -8454,9 +8000,11 @@
         <v>11466794.983</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
-      <c r="A225" s="1" t="s">
-        <v>233</v>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2015-11</t>
+        </is>
       </c>
       <c r="B225" t="n">
         <v>1271220.433</v>
@@ -8486,9 +8034,11 @@
         <v>11504194.95</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
-      <c r="A226" s="1" t="s">
-        <v>234</v>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2015-12</t>
+        </is>
       </c>
       <c r="B226" t="n">
         <v>1253380.057</v>
@@ -8518,9 +8068,11 @@
         <v>11655019.173</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
-      <c r="A227" s="1" t="s">
-        <v>235</v>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2016-01</t>
+        </is>
       </c>
       <c r="B227" t="n">
         <v>1261780.365</v>
@@ -8550,9 +8102,11 @@
         <v>11803934.065</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
-      <c r="A228" s="1" t="s">
-        <v>236</v>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2016-02</t>
+        </is>
       </c>
       <c r="B228" t="n">
         <v>1254099.434</v>
@@ -8582,9 +8136,11 @@
         <v>11702480.207</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
-      <c r="A229" s="1" t="s">
-        <v>237</v>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2016-03</t>
+        </is>
       </c>
       <c r="B229" t="n">
         <v>1306062.114</v>
@@ -8614,9 +8170,11 @@
         <v>11783190.008</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
-      <c r="A230" s="1" t="s">
-        <v>238</v>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2016-04</t>
+        </is>
       </c>
       <c r="B230" t="n">
         <v>1296149.233</v>
@@ -8646,9 +8204,11 @@
         <v>11792912.304</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
-      <c r="A231" s="1" t="s">
-        <v>239</v>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2016-05</t>
+        </is>
       </c>
       <c r="B231" t="n">
         <v>1320005.533</v>
@@ -8678,9 +8238,11 @@
         <v>11724516.186</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
-      <c r="A232" s="1" t="s">
-        <v>240</v>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2016-06</t>
+        </is>
       </c>
       <c r="B232" t="n">
         <v>1329267.003</v>
@@ -8710,9 +8272,11 @@
         <v>11828214.05</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
-      <c r="A233" s="1" t="s">
-        <v>241</v>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2016-07</t>
+        </is>
       </c>
       <c r="B233" t="n">
         <v>1356198.166</v>
@@ -8742,9 +8306,11 @@
         <v>12039788.194</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
-      <c r="A234" s="1" t="s">
-        <v>242</v>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2016-08</t>
+        </is>
       </c>
       <c r="B234" t="n">
         <v>1380945.105</v>
@@ -8774,9 +8340,11 @@
         <v>12170312.708</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
-      <c r="A235" s="1" t="s">
-        <v>243</v>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2016-09</t>
+        </is>
       </c>
       <c r="B235" t="n">
         <v>1417125.98</v>
@@ -8806,9 +8374,11 @@
         <v>12431638.003</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
-      <c r="A236" s="1" t="s">
-        <v>244</v>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2016-10</t>
+        </is>
       </c>
       <c r="B236" t="n">
         <v>1437974.135</v>
@@ -8838,9 +8408,11 @@
         <v>12486092.663</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
-      <c r="A237" s="1" t="s">
-        <v>245</v>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2016-11</t>
+        </is>
       </c>
       <c r="B237" t="n">
         <v>1423709.302</v>
@@ -8870,9 +8442,11 @@
         <v>12567923.605</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
-      <c r="A238" s="1" t="s">
-        <v>246</v>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
       </c>
       <c r="B238" t="n">
         <v>1428774.89</v>
@@ -8902,9 +8476,11 @@
         <v>12551330.616</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
-      <c r="A239" s="1" t="s">
-        <v>247</v>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2017-01</t>
+        </is>
       </c>
       <c r="B239" t="n">
         <v>1413085.704</v>
@@ -8934,9 +8510,11 @@
         <v>12744653.059</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
-      <c r="A240" s="1" t="s">
-        <v>248</v>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>2017-02</t>
+        </is>
       </c>
       <c r="B240" t="n">
         <v>1434580.719</v>
@@ -8966,9 +8544,11 @@
         <v>12847844.396</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
-      <c r="A241" s="1" t="s">
-        <v>249</v>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>2017-03</t>
+        </is>
       </c>
       <c r="B241" t="n">
         <v>1474228.823</v>
@@ -8998,9 +8578,11 @@
         <v>12977811.435</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
-      <c r="A242" s="1" t="s">
-        <v>250</v>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>2017-04</t>
+        </is>
       </c>
       <c r="B242" t="n">
         <v>1477493.57</v>
@@ -9030,9 +8612,11 @@
         <v>13116409.987</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
-      <c r="A243" s="1" t="s">
-        <v>251</v>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>2017-05</t>
+        </is>
       </c>
       <c r="B243" t="n">
         <v>1512278.091</v>
@@ -9062,9 +8646,11 @@
         <v>13232946.961</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
-      <c r="A244" s="1" t="s">
-        <v>252</v>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>2017-06</t>
+        </is>
       </c>
       <c r="B244" t="n">
         <v>1502455.928</v>
@@ -9094,9 +8680,11 @@
         <v>13361692.123</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
-      <c r="A245" s="1" t="s">
-        <v>253</v>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>2017-07</t>
+        </is>
       </c>
       <c r="B245" t="n">
         <v>1605551.72</v>
@@ -9126,9 +8714,11 @@
         <v>13507943.004</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
-      <c r="A246" s="1" t="s">
-        <v>254</v>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>2017-08</t>
+        </is>
       </c>
       <c r="B246" t="n">
         <v>1550258.562</v>
@@ -9158,9 +8748,11 @@
         <v>13483816.095</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
-      <c r="A247" s="1" t="s">
-        <v>255</v>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>2017-09</t>
+        </is>
       </c>
       <c r="B247" t="n">
         <v>1607223.273</v>
@@ -9190,9 +8782,11 @@
         <v>13533591.738</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
-      <c r="A248" s="1" t="s">
-        <v>256</v>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>2017-10</t>
+        </is>
       </c>
       <c r="B248" t="n">
         <v>2156977.943</v>
@@ -9222,9 +8816,11 @@
         <v>14003063.538</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
-      <c r="A249" s="1" t="s">
-        <v>257</v>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>2017-11</t>
+        </is>
       </c>
       <c r="B249" t="n">
         <v>1616878.303</v>
@@ -9254,9 +8850,11 @@
         <v>13720969.292</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
-      <c r="A250" s="1" t="s">
-        <v>258</v>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>2017-12</t>
+        </is>
       </c>
       <c r="B250" t="n">
         <v>1598014.448</v>
@@ -9286,9 +8884,11 @@
         <v>13803837.437</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
-      <c r="A251" s="1" t="s">
-        <v>259</v>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>2018-01</t>
+        </is>
       </c>
       <c r="B251" t="n">
         <v>1677111.583</v>
@@ -9318,9 +8918,11 @@
         <v>14148032.402</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
-      <c r="A252" s="1" t="s">
-        <v>260</v>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>2018-02</t>
+        </is>
       </c>
       <c r="B252" t="n">
         <v>1652521.205</v>
@@ -9350,9 +8952,11 @@
         <v>14048722.298</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
-      <c r="A253" s="1" t="s">
-        <v>261</v>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>2018-03</t>
+        </is>
       </c>
       <c r="B253" t="n">
         <v>1656884.487</v>
@@ -9382,9 +8986,11 @@
         <v>13987761.077</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
-      <c r="A254" s="1" t="s">
-        <v>262</v>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>2018-04</t>
+        </is>
       </c>
       <c r="B254" t="n">
         <v>2025904.912</v>
@@ -9414,9 +9020,11 @@
         <v>14400232.374</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
-      <c r="A255" s="1" t="s">
-        <v>263</v>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>2018-05</t>
+        </is>
       </c>
       <c r="B255" t="n">
         <v>1692271.828</v>
@@ -9446,9 +9054,11 @@
         <v>14061117.812</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
-      <c r="A256" s="1" t="s">
-        <v>264</v>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>2018-06</t>
+        </is>
       </c>
       <c r="B256" t="n">
         <v>1660700.288</v>
@@ -9478,9 +9088,11 @@
         <v>14032525.339</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
-      <c r="A257" s="1" t="s">
-        <v>265</v>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>2018-07</t>
+        </is>
       </c>
       <c r="B257" t="n">
         <v>1628415.049</v>
@@ -9510,9 +9122,11 @@
         <v>14037291.271</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
-      <c r="A258" s="1" t="s">
-        <v>266</v>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>2018-08</t>
+        </is>
       </c>
       <c r="B258" t="n">
         <v>1601791.934</v>
@@ -9542,9 +9156,11 @@
         <v>14119703.399</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
-      <c r="A259" s="1" t="s">
-        <v>267</v>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>2018-09</t>
+        </is>
       </c>
       <c r="B259" t="n">
         <v>1602518.554</v>
@@ -9574,9 +9190,11 @@
         <v>14175404.564</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
-      <c r="A260" s="1" t="s">
-        <v>268</v>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2018-10</t>
+        </is>
       </c>
       <c r="B260" t="n">
         <v>1603437.21</v>
@@ -9606,9 +9224,11 @@
         <v>14154652.019</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
-      <c r="A261" s="1" t="s">
-        <v>269</v>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>2018-11</t>
+        </is>
       </c>
       <c r="B261" t="n">
         <v>1581722.856</v>
@@ -9638,9 +9258,11 @@
         <v>14195164.782</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
-      <c r="A262" s="1" t="s">
-        <v>270</v>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>2018-12</t>
+        </is>
       </c>
       <c r="B262" t="n">
         <v>1555731.241</v>
@@ -9670,9 +9292,11 @@
         <v>14403688.494</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
-      <c r="A263" s="1" t="s">
-        <v>271</v>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>2019-01</t>
+        </is>
       </c>
       <c r="B263" t="n">
         <v>1589089.359</v>
@@ -9702,9 +9326,11 @@
         <v>14498008.505</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
-      <c r="A264" s="1" t="s">
-        <v>272</v>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>2019-02</t>
+        </is>
       </c>
       <c r="B264" t="n">
         <v>1590272.954</v>
@@ -9734,9 +9360,11 @@
         <v>14510345.142</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
-      <c r="A265" s="1" t="s">
-        <v>273</v>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>2019-03</t>
+        </is>
       </c>
       <c r="B265" t="n">
         <v>1583172.236</v>
@@ -9766,9 +9394,11 @@
         <v>14545033.276</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
-      <c r="A266" s="1" t="s">
-        <v>274</v>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>2019-04</t>
+        </is>
       </c>
       <c r="B266" t="n">
         <v>1614464.831</v>
@@ -9798,9 +9428,11 @@
         <v>14700125.441</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
-      <c r="A267" s="1" t="s">
-        <v>275</v>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>2019-05</t>
+        </is>
       </c>
       <c r="B267" t="n">
         <v>1591591.313</v>
@@ -9830,9 +9462,11 @@
         <v>14580347.677</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
-      <c r="A268" s="1" t="s">
-        <v>276</v>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>2019-06</t>
+        </is>
       </c>
       <c r="B268" t="n">
         <v>1566091.16</v>
@@ -9862,9 +9496,11 @@
         <v>14594039.219</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
-      <c r="A269" s="1" t="s">
-        <v>277</v>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>2019-07</t>
+        </is>
       </c>
       <c r="B269" t="n">
         <v>1578902.016</v>
@@ -9894,9 +9530,11 @@
         <v>14567313.837</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
-      <c r="A270" s="1" t="s">
-        <v>278</v>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>2019-08</t>
+        </is>
       </c>
       <c r="B270" t="n">
         <v>1530865.671</v>
@@ -9926,9 +9564,11 @@
         <v>14590402.873</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
-      <c r="A271" s="1" t="s">
-        <v>279</v>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>2019-09</t>
+        </is>
       </c>
       <c r="B271" t="n">
         <v>1546402.389</v>
@@ -9958,9 +9598,11 @@
         <v>14547863.625</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
-      <c r="A272" s="1" t="s">
-        <v>280</v>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>2019-10</t>
+        </is>
       </c>
       <c r="B272" t="n">
         <v>1566149.397</v>
@@ -9990,9 +9632,11 @@
         <v>14714909.396</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
-      <c r="A273" s="1" t="s">
-        <v>281</v>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>2019-11</t>
+        </is>
       </c>
       <c r="B273" t="n">
         <v>1540461.206</v>
@@ -10022,9 +9666,11 @@
         <v>14803923.85</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
-      <c r="A274" s="1" t="s">
-        <v>282</v>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>2019-12</t>
+        </is>
       </c>
       <c r="B274" t="n">
         <v>1533104.13</v>
@@ -10054,9 +9700,11 @@
         <v>14786374.665</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
-      <c r="A275" s="1" t="s">
-        <v>283</v>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>2020-01</t>
+        </is>
       </c>
       <c r="B275" t="n">
         <v>1599654.157</v>
@@ -10086,9 +9734,11 @@
         <v>14816427.491</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
-      <c r="A276" s="1" t="s">
-        <v>284</v>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>2020-02</t>
+        </is>
       </c>
       <c r="B276" t="n">
         <v>1597681.008</v>
@@ -10118,9 +9768,11 @@
         <v>14827169.053</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
-      <c r="A277" s="1" t="s">
-        <v>285</v>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>2020-03</t>
+        </is>
       </c>
       <c r="B277" t="n">
         <v>1578351.719</v>
@@ -10150,9 +9802,11 @@
         <v>14845662.858</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
-      <c r="A278" s="1" t="s">
-        <v>286</v>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>2020-04</t>
+        </is>
       </c>
       <c r="B278" t="n">
         <v>1587065.188</v>
@@ -10182,9 +9836,11 @@
         <v>14978141.349</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
-      <c r="A279" s="1" t="s">
-        <v>287</v>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>2020-05</t>
+        </is>
       </c>
       <c r="B279" t="n">
         <v>1647306.21</v>
@@ -10214,9 +9870,11 @@
         <v>14914681.539</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
-      <c r="A280" s="1" t="s">
-        <v>288</v>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>2020-06</t>
+        </is>
       </c>
       <c r="B280" t="n">
         <v>1759031.701</v>
@@ -10246,9 +9904,11 @@
         <v>15142574.909</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
-      <c r="A281" s="1" t="s">
-        <v>289</v>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>2020-07</t>
+        </is>
       </c>
       <c r="B281" t="n">
         <v>2039118.735</v>
@@ -10278,9 +9938,11 @@
         <v>15530132.358</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
-      <c r="A282" s="1" t="s">
-        <v>290</v>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>2020-08</t>
+        </is>
       </c>
       <c r="B282" t="n">
         <v>2463802.646</v>
@@ -10310,9 +9972,11 @@
         <v>15911165.427</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
-      <c r="A283" s="1" t="s">
-        <v>291</v>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>2020-09</t>
+        </is>
       </c>
       <c r="B283" t="n">
         <v>2406597.038</v>
@@ -10342,9 +10006,11 @@
         <v>15883405.117</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
-      <c r="A284" s="1" t="s">
-        <v>292</v>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>2020-10</t>
+        </is>
       </c>
       <c r="B284" t="n">
         <v>3012786.568</v>
@@ -10374,9 +10040,11 @@
         <v>16821441.116</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
-      <c r="A285" s="1" t="s">
-        <v>293</v>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>2020-11</t>
+        </is>
       </c>
       <c r="B285" t="n">
         <v>2017354.425</v>
@@ -10406,9 +10074,11 @@
         <v>15775578.287</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
-      <c r="A286" s="1" t="s">
-        <v>294</v>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>2020-12</t>
+        </is>
       </c>
       <c r="B286" t="n">
         <v>1972718.934</v>
@@ -10438,9 +10108,11 @@
         <v>15644043.118</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
-      <c r="A287" s="1" t="s">
-        <v>295</v>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
       </c>
       <c r="B287" t="n">
         <v>3174145.575</v>
@@ -10470,9 +10142,11 @@
         <v>17055467.37</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
-      <c r="A288" s="1" t="s">
-        <v>296</v>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
       </c>
       <c r="B288" t="n">
         <v>2261042.161</v>
@@ -10502,9 +10176,11 @@
         <v>15947045.372</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
-      <c r="A289" s="1" t="s">
-        <v>297</v>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
       </c>
       <c r="B289" t="n">
         <v>2079445.909</v>
@@ -10534,9 +10210,11 @@
         <v>15797351.836</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
-      <c r="A290" s="1" t="s">
-        <v>298</v>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2021-04</t>
+        </is>
       </c>
       <c r="B290" t="n">
         <v>2020303.349</v>
@@ -10566,9 +10244,11 @@
         <v>15807757.757</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
-      <c r="A291" s="1" t="s">
-        <v>299</v>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
       </c>
       <c r="B291" t="n">
         <v>2105195.52</v>
@@ -10598,9 +10278,11 @@
         <v>15972230.187</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
-      <c r="A292" s="1" t="s">
-        <v>300</v>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2021-06</t>
+        </is>
       </c>
       <c r="B292" t="n">
         <v>2553280.056</v>
@@ -10630,9 +10312,11 @@
         <v>16270816.514</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
-      <c r="A293" s="1" t="s">
-        <v>301</v>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2021-07</t>
+        </is>
       </c>
       <c r="B293" t="n">
         <v>2166280.214</v>
@@ -10662,9 +10346,11 @@
         <v>15999582.338</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
-      <c r="A294" s="1" t="s">
-        <v>302</v>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2021-08</t>
+        </is>
       </c>
       <c r="B294" t="n">
         <v>2093474.166</v>
@@ -10694,9 +10380,11 @@
         <v>15978805.527</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
-      <c r="A295" s="1" t="s">
-        <v>303</v>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2021-09</t>
+        </is>
       </c>
       <c r="B295" t="n">
         <v>2141721.638</v>
@@ -10726,9 +10414,11 @@
         <v>16104828.046</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
-      <c r="A296" s="1" t="s">
-        <v>304</v>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
       </c>
       <c r="B296" t="n">
         <v>2151122.581</v>
@@ -10756,6 +10446,108 @@
       </c>
       <c r="J296" t="n">
         <v>16107778.137</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2140513.534</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1465338.88</v>
+      </c>
+      <c r="D297" t="n">
+        <v>3605852.414</v>
+      </c>
+      <c r="E297" t="n">
+        <v>8097979.271</v>
+      </c>
+      <c r="F297" t="n">
+        <v>8095378.997</v>
+      </c>
+      <c r="G297" t="n">
+        <v>16193358.268</v>
+      </c>
+      <c r="H297" t="n">
+        <v>8110891.558</v>
+      </c>
+      <c r="I297" t="n">
+        <v>8119681.589</v>
+      </c>
+      <c r="J297" t="n">
+        <v>16230573.147</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2078910.831</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1411946.999</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3490857.83</v>
+      </c>
+      <c r="E298" t="n">
+        <v>8043994.055</v>
+      </c>
+      <c r="F298" t="n">
+        <v>8228655.608</v>
+      </c>
+      <c r="G298" t="n">
+        <v>16272649.663</v>
+      </c>
+      <c r="H298" t="n">
+        <v>8057407.643</v>
+      </c>
+      <c r="I298" t="n">
+        <v>8253458.448</v>
+      </c>
+      <c r="J298" t="n">
+        <v>16310866.091</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2115294.07</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1505848.225</v>
+      </c>
+      <c r="D299" t="n">
+        <v>3621142.295</v>
+      </c>
+      <c r="E299" t="n">
+        <v>8159919.244</v>
+      </c>
+      <c r="F299" t="n">
+        <v>8517539.397</v>
+      </c>
+      <c r="G299" t="n">
+        <v>16677458.641</v>
+      </c>
+      <c r="H299" t="n">
+        <v>8173007.49</v>
+      </c>
+      <c r="I299" t="n">
+        <v>8540619.612</v>
+      </c>
+      <c r="J299" t="n">
+        <v>16713627.102</v>
       </c>
     </row>
   </sheetData>

--- a/data/532/HKMA/Money supply Adjusted for currency swap deposits.xlsx
+++ b/data/532/HKMA/Money supply Adjusted for currency swap deposits.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J299"/>
+  <dimension ref="A1:J300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10550,6 +10550,40 @@
         <v>16713627.102</v>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2150464.752</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1517944.724</v>
+      </c>
+      <c r="D300" t="n">
+        <v>3668409.476</v>
+      </c>
+      <c r="E300" t="n">
+        <v>8184644.964</v>
+      </c>
+      <c r="F300" t="n">
+        <v>8293790.949</v>
+      </c>
+      <c r="G300" t="n">
+        <v>16478435.913</v>
+      </c>
+      <c r="H300" t="n">
+        <v>8197647.39</v>
+      </c>
+      <c r="I300" t="n">
+        <v>8314777.235</v>
+      </c>
+      <c r="J300" t="n">
+        <v>16512424.625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
